--- a/stock_price_data.xlsx
+++ b/stock_price_data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20354"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yuyue\OneDrive\桌面\30hr_pyxl\python_excel_lesson1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Weber\Documents\GitHub\2020-Python-Excel-NTU\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1469" documentId="11_7FAA967FCB77D441E06DB0B877D6D9444A0F6DD0" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{20025A87-B10D-4A34-8B01-919CBB76BC71}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E714714-B2F7-49FD-A206-D2CBCE8406EE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="830" yWindow="-110" windowWidth="22780" windowHeight="14660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2330" sheetId="1" r:id="rId1"/>
@@ -19,14 +19,6 @@
     <definedName name="weight3d">'2330'!$I$2:$I$4</definedName>
   </definedNames>
   <calcPr calcId="191029" concurrentCalc="0"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
@@ -624,7 +616,7 @@
   <sheetPr codeName="工作表1"/>
   <dimension ref="A1:M101"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A73" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
@@ -683,7 +675,9 @@
       <c r="B3" s="7">
         <v>226.5</v>
       </c>
-      <c r="C3" s="3"/>
+      <c r="C3" s="3">
+        <v>0.89086859688195996</v>
+      </c>
       <c r="I3" s="3">
         <v>2</v>
       </c>
@@ -695,7 +689,9 @@
       <c r="B4" s="7">
         <v>233</v>
       </c>
-      <c r="C4" s="3"/>
+      <c r="C4" s="3">
+        <v>2.869757174392936</v>
+      </c>
       <c r="D4" s="3"/>
       <c r="I4" s="3">
         <v>3</v>
@@ -708,7 +704,9 @@
       <c r="B5" s="7">
         <v>237.5</v>
       </c>
-      <c r="C5" s="3"/>
+      <c r="C5" s="3">
+        <v>1.9313304721030042</v>
+      </c>
       <c r="D5" s="3"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.4">
@@ -718,7 +716,9 @@
       <c r="B6" s="7">
         <v>237.5</v>
       </c>
-      <c r="C6" s="3"/>
+      <c r="C6" s="3">
+        <v>0</v>
+      </c>
       <c r="D6" s="3"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.4">
@@ -728,7 +728,9 @@
       <c r="B7" s="7">
         <v>238</v>
       </c>
-      <c r="C7" s="3"/>
+      <c r="C7" s="3">
+        <v>0.21052631578947367</v>
+      </c>
       <c r="D7" s="3"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.4">
@@ -738,7 +740,9 @@
       <c r="B8" s="7">
         <v>235.5</v>
       </c>
-      <c r="C8" s="3"/>
+      <c r="C8" s="3">
+        <v>-1.0504201680672269</v>
+      </c>
       <c r="D8" s="3"/>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.4">
@@ -748,7 +752,9 @@
       <c r="B9" s="7">
         <v>237.5</v>
       </c>
-      <c r="C9" s="3"/>
+      <c r="C9" s="3">
+        <v>0.84925690021231426</v>
+      </c>
       <c r="D9" s="3"/>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.4">
@@ -758,7 +764,9 @@
       <c r="B10" s="7">
         <v>239</v>
       </c>
-      <c r="C10" s="3"/>
+      <c r="C10" s="3">
+        <v>0.63157894736842102</v>
+      </c>
       <c r="D10" s="3"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.4">
@@ -768,7 +776,9 @@
       <c r="B11" s="7">
         <v>237.5</v>
       </c>
-      <c r="C11" s="3"/>
+      <c r="C11" s="3">
+        <v>-0.62761506276150625</v>
+      </c>
       <c r="D11" s="3"/>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.4">
@@ -778,7 +788,9 @@
       <c r="B12" s="7">
         <v>239</v>
       </c>
-      <c r="C12" s="3"/>
+      <c r="C12" s="3">
+        <v>0.63157894736842102</v>
+      </c>
       <c r="D12" s="3"/>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.4">
@@ -788,7 +800,9 @@
       <c r="B13" s="7">
         <v>238</v>
       </c>
-      <c r="C13" s="3"/>
+      <c r="C13" s="3">
+        <v>-0.41841004184100417</v>
+      </c>
       <c r="D13" s="3"/>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.4">
@@ -798,7 +812,9 @@
       <c r="B14" s="7">
         <v>238</v>
       </c>
-      <c r="C14" s="3"/>
+      <c r="C14" s="3">
+        <v>0</v>
+      </c>
       <c r="D14" s="3"/>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.4">
@@ -808,7 +824,9 @@
       <c r="B15" s="7">
         <v>236</v>
       </c>
-      <c r="C15" s="3"/>
+      <c r="C15" s="3">
+        <v>-0.84033613445378152</v>
+      </c>
       <c r="D15" s="3"/>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.4">
@@ -818,7 +836,9 @@
       <c r="B16" s="7">
         <v>239</v>
       </c>
-      <c r="C16" s="3"/>
+      <c r="C16" s="3">
+        <v>1.271186440677966</v>
+      </c>
       <c r="D16" s="3"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.4">
@@ -828,7 +848,9 @@
       <c r="B17" s="7">
         <v>243</v>
       </c>
-      <c r="C17" s="3"/>
+      <c r="C17" s="3">
+        <v>1.6736401673640167</v>
+      </c>
       <c r="D17" s="3"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.4">
@@ -838,7 +860,9 @@
       <c r="B18" s="7">
         <v>243</v>
       </c>
-      <c r="C18" s="3"/>
+      <c r="C18" s="3">
+        <v>0</v>
+      </c>
       <c r="D18" s="3"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.4">
@@ -848,7 +872,9 @@
       <c r="B19" s="7">
         <v>242.5</v>
       </c>
-      <c r="C19" s="3"/>
+      <c r="C19" s="3">
+        <v>-0.20576131687242799</v>
+      </c>
       <c r="D19" s="3"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.4">
@@ -858,7 +884,9 @@
       <c r="B20" s="7">
         <v>241</v>
       </c>
-      <c r="C20" s="3"/>
+      <c r="C20" s="3">
+        <v>-0.61855670103092786</v>
+      </c>
       <c r="D20" s="3"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.4">
@@ -868,7 +896,9 @@
       <c r="B21" s="7">
         <v>239</v>
       </c>
-      <c r="C21" s="3"/>
+      <c r="C21" s="3">
+        <v>-0.82987551867219922</v>
+      </c>
       <c r="D21" s="3"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.4">
@@ -878,7 +908,9 @@
       <c r="B22" s="7">
         <v>239.5</v>
       </c>
-      <c r="C22" s="3"/>
+      <c r="C22" s="3">
+        <v>0.20920502092050208</v>
+      </c>
       <c r="D22" s="3"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.4">
@@ -888,7 +920,9 @@
       <c r="B23" s="7">
         <v>244</v>
       </c>
-      <c r="C23" s="3"/>
+      <c r="C23" s="3">
+        <v>1.8789144050104385</v>
+      </c>
       <c r="D23" s="3"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.4">
@@ -898,7 +932,9 @@
       <c r="B24" s="7">
         <v>242.5</v>
       </c>
-      <c r="C24" s="3"/>
+      <c r="C24" s="3">
+        <v>-0.61475409836065575</v>
+      </c>
       <c r="D24" s="3"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.4">
@@ -908,7 +944,9 @@
       <c r="B25" s="7">
         <v>241</v>
       </c>
-      <c r="C25" s="3"/>
+      <c r="C25" s="3">
+        <v>-0.61855670103092786</v>
+      </c>
       <c r="D25" s="3"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.4">
@@ -918,7 +956,9 @@
       <c r="B26" s="7">
         <v>240.5</v>
       </c>
-      <c r="C26" s="3"/>
+      <c r="C26" s="3">
+        <v>-0.2074688796680498</v>
+      </c>
       <c r="D26" s="3"/>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.4">
@@ -928,7 +968,9 @@
       <c r="B27" s="7">
         <v>239.5</v>
       </c>
-      <c r="C27" s="3"/>
+      <c r="C27" s="3">
+        <v>-0.41580041580041582</v>
+      </c>
       <c r="D27" s="3"/>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.4">
@@ -938,7 +980,9 @@
       <c r="B28" s="7">
         <v>240</v>
       </c>
-      <c r="C28" s="3"/>
+      <c r="C28" s="3">
+        <v>0.20876826722338204</v>
+      </c>
       <c r="D28" s="3"/>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.4">
@@ -948,7 +992,9 @@
       <c r="B29" s="7">
         <v>237.5</v>
       </c>
-      <c r="C29" s="3"/>
+      <c r="C29" s="3">
+        <v>-1.0416666666666667</v>
+      </c>
       <c r="D29" s="3"/>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.4">
@@ -958,7 +1004,9 @@
       <c r="B30" s="7">
         <v>238</v>
       </c>
-      <c r="C30" s="3"/>
+      <c r="C30" s="3">
+        <v>0.21052631578947367</v>
+      </c>
       <c r="D30" s="3"/>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.4">
@@ -968,7 +1016,9 @@
       <c r="B31" s="7">
         <v>241.5</v>
       </c>
-      <c r="C31" s="3"/>
+      <c r="C31" s="3">
+        <v>1.4705882352941178</v>
+      </c>
       <c r="D31" s="3"/>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.4">
@@ -978,7 +1028,9 @@
       <c r="B32" s="7">
         <v>238.5</v>
       </c>
-      <c r="C32" s="3"/>
+      <c r="C32" s="3">
+        <v>-1.2422360248447204</v>
+      </c>
       <c r="D32" s="3"/>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.4">
@@ -988,7 +1040,9 @@
       <c r="B33" s="7">
         <v>243</v>
       </c>
-      <c r="C33" s="3"/>
+      <c r="C33" s="3">
+        <v>1.8867924528301887</v>
+      </c>
       <c r="D33" s="3"/>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.4">
@@ -998,7 +1052,9 @@
       <c r="B34" s="7">
         <v>242</v>
       </c>
-      <c r="C34" s="3"/>
+      <c r="C34" s="3">
+        <v>-0.41152263374485598</v>
+      </c>
       <c r="D34" s="3"/>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.4">
@@ -1008,7 +1064,9 @@
       <c r="B35" s="7">
         <v>242.5</v>
       </c>
-      <c r="C35" s="3"/>
+      <c r="C35" s="3">
+        <v>0.20661157024793389</v>
+      </c>
       <c r="D35" s="3"/>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.4">
@@ -1018,7 +1076,9 @@
       <c r="B36" s="7">
         <v>244</v>
       </c>
-      <c r="C36" s="3"/>
+      <c r="C36" s="3">
+        <v>0.61855670103092786</v>
+      </c>
       <c r="D36" s="3"/>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.4">
@@ -1028,7 +1088,9 @@
       <c r="B37" s="7">
         <v>237</v>
       </c>
-      <c r="C37" s="3"/>
+      <c r="C37" s="3">
+        <v>-2.8688524590163933</v>
+      </c>
       <c r="D37" s="3"/>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.4">
@@ -1038,7 +1100,9 @@
       <c r="B38" s="7">
         <v>234</v>
       </c>
-      <c r="C38" s="3"/>
+      <c r="C38" s="3">
+        <v>-1.2658227848101267</v>
+      </c>
       <c r="D38" s="3"/>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.4">
@@ -1048,7 +1112,9 @@
       <c r="B39" s="7">
         <v>234.5</v>
       </c>
-      <c r="C39" s="3"/>
+      <c r="C39" s="3">
+        <v>0.21367521367521367</v>
+      </c>
       <c r="D39" s="3"/>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.4">
@@ -1058,7 +1124,9 @@
       <c r="B40" s="7">
         <v>226</v>
       </c>
-      <c r="C40" s="3"/>
+      <c r="C40" s="3">
+        <v>-3.624733475479744</v>
+      </c>
       <c r="D40" s="3"/>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.4">
@@ -1068,7 +1136,9 @@
       <c r="B41" s="7">
         <v>231</v>
       </c>
-      <c r="C41" s="3"/>
+      <c r="C41" s="3">
+        <v>2.2123893805309733</v>
+      </c>
       <c r="D41" s="3"/>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.4">
@@ -1078,7 +1148,9 @@
       <c r="B42" s="7">
         <v>234</v>
       </c>
-      <c r="C42" s="3"/>
+      <c r="C42" s="3">
+        <v>1.2987012987012987</v>
+      </c>
       <c r="D42" s="3"/>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.4">
@@ -1088,7 +1160,9 @@
       <c r="B43" s="7">
         <v>232.5</v>
       </c>
-      <c r="C43" s="3"/>
+      <c r="C43" s="3">
+        <v>-0.64102564102564108</v>
+      </c>
       <c r="D43" s="3"/>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.4">
@@ -1098,7 +1172,9 @@
       <c r="B44" s="3">
         <v>227</v>
       </c>
-      <c r="C44" s="3"/>
+      <c r="C44" s="3">
+        <v>-2.3655913978494625</v>
+      </c>
       <c r="D44" s="3"/>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.4">
@@ -1108,7 +1184,9 @@
       <c r="B45" s="3">
         <v>226.5</v>
       </c>
-      <c r="C45" s="3"/>
+      <c r="C45" s="3">
+        <v>-0.22026431718061673</v>
+      </c>
       <c r="D45" s="3"/>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.4">
@@ -1118,7 +1196,9 @@
       <c r="B46" s="3">
         <v>227</v>
       </c>
-      <c r="C46" s="3"/>
+      <c r="C46" s="3">
+        <v>0.22075055187637968</v>
+      </c>
       <c r="D46" s="3"/>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.4">
@@ -1128,7 +1208,9 @@
       <c r="B47" s="3">
         <v>231</v>
       </c>
-      <c r="C47" s="3"/>
+      <c r="C47" s="3">
+        <v>1.7621145374449338</v>
+      </c>
       <c r="D47" s="3"/>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.4">
@@ -1138,7 +1220,9 @@
       <c r="B48" s="3">
         <v>231</v>
       </c>
-      <c r="C48" s="3"/>
+      <c r="C48" s="3">
+        <v>0</v>
+      </c>
       <c r="D48" s="3"/>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.4">
@@ -1148,7 +1232,9 @@
       <c r="B49" s="7">
         <v>227.5</v>
       </c>
-      <c r="C49" s="3"/>
+      <c r="C49" s="3">
+        <v>-1.5151515151515151</v>
+      </c>
       <c r="D49" s="3"/>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.4">
@@ -1158,7 +1244,9 @@
       <c r="B50" s="3">
         <v>227.5</v>
       </c>
-      <c r="C50" s="3"/>
+      <c r="C50" s="3">
+        <v>0</v>
+      </c>
       <c r="D50" s="3"/>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.4">
@@ -1168,7 +1256,9 @@
       <c r="B51" s="3">
         <v>227.5</v>
       </c>
-      <c r="C51" s="3"/>
+      <c r="C51" s="3">
+        <v>0</v>
+      </c>
       <c r="D51" s="3"/>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.4">
@@ -1178,7 +1268,9 @@
       <c r="B52" s="3">
         <v>227.5</v>
       </c>
-      <c r="C52" s="3"/>
+      <c r="C52" s="3">
+        <v>0</v>
+      </c>
       <c r="D52" s="3"/>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.4">
@@ -1188,7 +1280,9 @@
       <c r="B53" s="3">
         <v>227.5</v>
       </c>
-      <c r="C53" s="3"/>
+      <c r="C53" s="3">
+        <v>0</v>
+      </c>
       <c r="D53" s="3"/>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.4">
@@ -1198,7 +1292,9 @@
       <c r="B54" s="3">
         <v>230.5</v>
       </c>
-      <c r="C54" s="3"/>
+      <c r="C54" s="3">
+        <v>1.3186813186813187</v>
+      </c>
       <c r="D54" s="3"/>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.4">
@@ -1208,7 +1304,9 @@
       <c r="B55" s="3">
         <v>224.5</v>
       </c>
-      <c r="C55" s="3"/>
+      <c r="C55" s="3">
+        <v>-2.6030368763557483</v>
+      </c>
       <c r="D55" s="3"/>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.4">
@@ -1218,7 +1316,9 @@
       <c r="B56" s="3">
         <v>225</v>
       </c>
-      <c r="C56" s="3"/>
+      <c r="C56" s="3">
+        <v>0.22271714922048999</v>
+      </c>
       <c r="D56" s="3"/>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.4">
@@ -1228,7 +1328,9 @@
       <c r="B57" s="3">
         <v>225</v>
       </c>
-      <c r="C57" s="3"/>
+      <c r="C57" s="3">
+        <v>0</v>
+      </c>
       <c r="D57" s="3"/>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.4">
@@ -1238,7 +1340,9 @@
       <c r="B58" s="3">
         <v>227.5</v>
       </c>
-      <c r="C58" s="3"/>
+      <c r="C58" s="3">
+        <v>1.1111111111111112</v>
+      </c>
       <c r="D58" s="3"/>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.4">
@@ -1248,7 +1352,9 @@
       <c r="B59" s="3">
         <v>228.5</v>
       </c>
-      <c r="C59" s="3"/>
+      <c r="C59" s="3">
+        <v>0.43956043956043955</v>
+      </c>
       <c r="D59" s="3"/>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.4">
@@ -1258,7 +1364,9 @@
       <c r="B60" s="3">
         <v>226</v>
       </c>
-      <c r="C60" s="3"/>
+      <c r="C60" s="3">
+        <v>-1.0940919037199124</v>
+      </c>
       <c r="D60" s="3"/>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.4">
@@ -1268,7 +1376,9 @@
       <c r="B61" s="3">
         <v>225</v>
       </c>
-      <c r="C61" s="3"/>
+      <c r="C61" s="3">
+        <v>-0.44247787610619471</v>
+      </c>
       <c r="D61" s="3"/>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.4">
@@ -1278,7 +1388,9 @@
       <c r="B62" s="3">
         <v>226</v>
       </c>
-      <c r="C62" s="3"/>
+      <c r="C62" s="3">
+        <v>0.44444444444444442</v>
+      </c>
       <c r="D62" s="3"/>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.4">
@@ -1288,7 +1400,9 @@
       <c r="B63" s="3">
         <v>229.5</v>
       </c>
-      <c r="C63" s="3"/>
+      <c r="C63" s="3">
+        <v>1.5486725663716814</v>
+      </c>
       <c r="D63" s="3"/>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.4">
@@ -1298,7 +1412,9 @@
       <c r="B64" s="3">
         <v>232.5</v>
       </c>
-      <c r="C64" s="3"/>
+      <c r="C64" s="3">
+        <v>1.3071895424836601</v>
+      </c>
       <c r="D64" s="3"/>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.4">
@@ -1308,7 +1424,9 @@
       <c r="B65" s="3">
         <v>239.5</v>
       </c>
-      <c r="C65" s="3"/>
+      <c r="C65" s="3">
+        <v>3.010752688172043</v>
+      </c>
       <c r="D65" s="3"/>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.4">
@@ -1318,7 +1436,9 @@
       <c r="B66" s="3">
         <v>240</v>
       </c>
-      <c r="C66" s="3"/>
+      <c r="C66" s="3">
+        <v>0.20876826722338204</v>
+      </c>
       <c r="D66" s="3"/>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.4">
@@ -1328,7 +1448,9 @@
       <c r="B67" s="7">
         <v>242</v>
       </c>
-      <c r="C67" s="3"/>
+      <c r="C67" s="3">
+        <v>0.83333333333333337</v>
+      </c>
       <c r="D67" s="3"/>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.4">
@@ -1338,7 +1460,9 @@
       <c r="B68" s="7">
         <v>242</v>
       </c>
-      <c r="C68" s="3"/>
+      <c r="C68" s="3">
+        <v>0</v>
+      </c>
       <c r="D68" s="3"/>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.4">
@@ -1348,7 +1472,9 @@
       <c r="B69" s="7">
         <v>236.5</v>
       </c>
-      <c r="C69" s="3"/>
+      <c r="C69" s="3">
+        <v>-2.2727272727272729</v>
+      </c>
       <c r="D69" s="3"/>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.4">
@@ -1358,7 +1484,9 @@
       <c r="B70" s="7">
         <v>235</v>
       </c>
-      <c r="C70" s="3"/>
+      <c r="C70" s="3">
+        <v>-0.63424947145877375</v>
+      </c>
       <c r="D70" s="3"/>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.4">
@@ -1368,7 +1496,9 @@
       <c r="B71" s="7">
         <v>237</v>
       </c>
-      <c r="C71" s="3"/>
+      <c r="C71" s="3">
+        <v>0.85106382978723405</v>
+      </c>
       <c r="D71" s="3"/>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.4">
@@ -1378,7 +1508,9 @@
       <c r="B72" s="7">
         <v>240</v>
       </c>
-      <c r="C72" s="3"/>
+      <c r="C72" s="3">
+        <v>1.2658227848101267</v>
+      </c>
       <c r="D72" s="3"/>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.4">
@@ -1388,7 +1520,9 @@
       <c r="B73" s="7">
         <v>240.5</v>
       </c>
-      <c r="C73" s="3"/>
+      <c r="C73" s="3">
+        <v>0.20833333333333334</v>
+      </c>
       <c r="D73" s="3"/>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.4">
@@ -1398,7 +1532,9 @@
       <c r="B74" s="7">
         <v>242</v>
       </c>
-      <c r="C74" s="3"/>
+      <c r="C74" s="3">
+        <v>0.62370062370062374</v>
+      </c>
       <c r="D74" s="3"/>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.4">
@@ -1408,7 +1544,9 @@
       <c r="B75" s="7">
         <v>248.5</v>
       </c>
-      <c r="C75" s="3"/>
+      <c r="C75" s="3">
+        <v>2.6859504132231407</v>
+      </c>
       <c r="D75" s="3"/>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.4">
@@ -1418,7 +1556,9 @@
       <c r="B76" s="7">
         <v>255.5</v>
       </c>
-      <c r="C76" s="3"/>
+      <c r="C76" s="3">
+        <v>2.816901408450704</v>
+      </c>
       <c r="D76" s="3"/>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.4">
@@ -1428,7 +1568,9 @@
       <c r="B77" s="7">
         <v>261.5</v>
       </c>
-      <c r="C77" s="3"/>
+      <c r="C77" s="3">
+        <v>2.3483365949119372</v>
+      </c>
       <c r="D77" s="3"/>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.4">
@@ -1438,7 +1580,9 @@
       <c r="B78" s="7">
         <v>266</v>
       </c>
-      <c r="C78" s="3"/>
+      <c r="C78" s="3">
+        <v>1.7208413001912046</v>
+      </c>
       <c r="D78" s="3"/>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.4">
@@ -1448,7 +1592,9 @@
       <c r="B79" s="7">
         <v>258</v>
       </c>
-      <c r="C79" s="3"/>
+      <c r="C79" s="3">
+        <v>-3.007518796992481</v>
+      </c>
       <c r="D79" s="3"/>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.4">
@@ -1458,7 +1604,9 @@
       <c r="B80" s="7">
         <v>258</v>
       </c>
-      <c r="C80" s="3"/>
+      <c r="C80" s="3">
+        <v>0</v>
+      </c>
       <c r="D80" s="3"/>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.4">
@@ -1468,7 +1616,9 @@
       <c r="B81" s="7">
         <v>255</v>
       </c>
-      <c r="C81" s="3"/>
+      <c r="C81" s="3">
+        <v>-1.1627906976744187</v>
+      </c>
       <c r="D81" s="3"/>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.4">
@@ -1478,7 +1628,9 @@
       <c r="B82" s="7">
         <v>258.5</v>
       </c>
-      <c r="C82" s="3"/>
+      <c r="C82" s="3">
+        <v>1.3725490196078431</v>
+      </c>
       <c r="D82" s="3"/>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.4">
@@ -1488,7 +1640,9 @@
       <c r="B83" s="7">
         <v>253</v>
       </c>
-      <c r="C83" s="3"/>
+      <c r="C83" s="3">
+        <v>-2.1276595744680851</v>
+      </c>
       <c r="D83" s="3"/>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.4">
@@ -1498,7 +1652,9 @@
       <c r="B84" s="7">
         <v>255</v>
       </c>
-      <c r="C84" s="3"/>
+      <c r="C84" s="3">
+        <v>0.79051383399209485</v>
+      </c>
       <c r="D84" s="3"/>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.4">
@@ -1508,7 +1664,9 @@
       <c r="B85" s="7">
         <v>259.5</v>
       </c>
-      <c r="C85" s="3"/>
+      <c r="C85" s="3">
+        <v>1.7647058823529411</v>
+      </c>
       <c r="D85" s="3"/>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.4">
@@ -1518,7 +1676,9 @@
       <c r="B86" s="7">
         <v>259.5</v>
       </c>
-      <c r="C86" s="3"/>
+      <c r="C86" s="3">
+        <v>0</v>
+      </c>
       <c r="D86" s="3"/>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.4">
@@ -1528,7 +1688,9 @@
       <c r="B87" s="7">
         <v>253</v>
       </c>
-      <c r="C87" s="3"/>
+      <c r="C87" s="3">
+        <v>-2.5048169556840079</v>
+      </c>
       <c r="D87" s="3"/>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.4">
@@ -1538,7 +1700,9 @@
       <c r="B88" s="7">
         <v>239</v>
       </c>
-      <c r="C88" s="3"/>
+      <c r="C88" s="3">
+        <v>-5.5335968379446641</v>
+      </c>
       <c r="D88" s="3"/>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.4">
@@ -1548,7 +1712,9 @@
       <c r="B89" s="7">
         <v>240</v>
       </c>
-      <c r="C89" s="3"/>
+      <c r="C89" s="3">
+        <v>0.41841004184100417</v>
+      </c>
       <c r="D89" s="3"/>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.4">
@@ -1558,7 +1724,9 @@
       <c r="B90" s="7">
         <v>238.5</v>
       </c>
-      <c r="C90" s="3"/>
+      <c r="C90" s="3">
+        <v>-0.625</v>
+      </c>
       <c r="D90" s="3"/>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.4">
@@ -1568,7 +1736,9 @@
       <c r="B91" s="7">
         <v>232.5</v>
       </c>
-      <c r="C91" s="3"/>
+      <c r="C91" s="3">
+        <v>-2.5157232704402515</v>
+      </c>
       <c r="D91" s="3"/>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.4">
@@ -1578,7 +1748,9 @@
       <c r="B92" s="7">
         <v>236.5</v>
       </c>
-      <c r="C92" s="3"/>
+      <c r="C92" s="3">
+        <v>1.7204301075268817</v>
+      </c>
       <c r="D92" s="3"/>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.4">
@@ -1588,7 +1760,9 @@
       <c r="B93" s="7">
         <v>242.5</v>
       </c>
-      <c r="C93" s="3"/>
+      <c r="C93" s="3">
+        <v>2.536997885835095</v>
+      </c>
       <c r="D93" s="3"/>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.4">
@@ -1598,7 +1772,9 @@
       <c r="B94" s="7">
         <v>239.5</v>
       </c>
-      <c r="C94" s="3"/>
+      <c r="C94" s="3">
+        <v>-1.2371134020618557</v>
+      </c>
       <c r="D94" s="3"/>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.4">
@@ -1608,7 +1784,9 @@
       <c r="B95" s="7">
         <v>245</v>
       </c>
-      <c r="C95" s="3"/>
+      <c r="C95" s="3">
+        <v>2.2964509394572024</v>
+      </c>
       <c r="D95" s="3"/>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.4">
@@ -1618,7 +1796,9 @@
       <c r="B96" s="7">
         <v>246.5</v>
       </c>
-      <c r="C96" s="10"/>
+      <c r="C96" s="10">
+        <v>0.61224489795918369</v>
+      </c>
       <c r="D96" s="3"/>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.4">
